--- a/FishLandings/output/statistics.xlsx
+++ b/FishLandings/output/statistics.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4869397-5AAB-034B-91FC-0D7E47FDCEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC136B6-444C-8B49-AE38-FBD9A48C274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="460" windowWidth="28020" windowHeight="19700" xr2:uid="{5FDCE57C-5292-474E-8C9B-DC97E3A3B8AB}"/>
+    <workbookView xWindow="5580" yWindow="460" windowWidth="28020" windowHeight="19700" activeTab="1" xr2:uid="{5FDCE57C-5292-474E-8C9B-DC97E3A3B8AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fig1 stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1 Methods" sheetId="2" r:id="rId1"/>
+    <sheet name="Table 2 CPUE Results" sheetId="3" r:id="rId2"/>
+    <sheet name="Supp Table 1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Dependent Variable</t>
   </si>
@@ -75,6 +77,165 @@
   </si>
   <si>
     <t xml:space="preserve">Reported Yield (Biomass; kg per trap) </t>
+  </si>
+  <si>
+    <t>Acanthurus dussumieri</t>
+  </si>
+  <si>
+    <t>Acanthurus triostegus</t>
+  </si>
+  <si>
+    <t>Acanthurus xanthopterus</t>
+  </si>
+  <si>
+    <t>Cephalopholis argus</t>
+  </si>
+  <si>
+    <t>Gerres oyena</t>
+  </si>
+  <si>
+    <t>Hipposcarus harid</t>
+  </si>
+  <si>
+    <t>Leptoscarus vaigiensis</t>
+  </si>
+  <si>
+    <t>Lethrinus conchyliatus</t>
+  </si>
+  <si>
+    <t>Lethrinus harak</t>
+  </si>
+  <si>
+    <t>Lethrinus nebulosus</t>
+  </si>
+  <si>
+    <t>Lutjanus fulviflamma</t>
+  </si>
+  <si>
+    <t>Monotaxis grandoculis</t>
+  </si>
+  <si>
+    <t>Mulloidichthys flavolineatus</t>
+  </si>
+  <si>
+    <t>Naso annulatus</t>
+  </si>
+  <si>
+    <t>Naso brachycentron</t>
+  </si>
+  <si>
+    <t>Parupeneus heptacanthus</t>
+  </si>
+  <si>
+    <t>Parupeneus macronemus</t>
+  </si>
+  <si>
+    <t>Plectorhinchus gaterinus</t>
+  </si>
+  <si>
+    <t>Plectorhinchus sordidus</t>
+  </si>
+  <si>
+    <t>Plectorhinchus vittatus</t>
+  </si>
+  <si>
+    <t>Sardinella melanura</t>
+  </si>
+  <si>
+    <t>Scarus ghobban</t>
+  </si>
+  <si>
+    <t>Scarus rubroviolaceus</t>
+  </si>
+  <si>
+    <t>Siganus canaliculatus</t>
+  </si>
+  <si>
+    <t>Siganus sutor</t>
+  </si>
+  <si>
+    <t>Trichiurus lepturus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Acanthuridae</t>
+  </si>
+  <si>
+    <t>Serranidae</t>
+  </si>
+  <si>
+    <t>Gerreidae</t>
+  </si>
+  <si>
+    <t>Scaridae</t>
+  </si>
+  <si>
+    <t>Lethrinidae</t>
+  </si>
+  <si>
+    <t>Lutjanidae</t>
+  </si>
+  <si>
+    <t>Mullidae</t>
+  </si>
+  <si>
+    <t>Haemulidae</t>
+  </si>
+  <si>
+    <t>Clupeidae</t>
+  </si>
+  <si>
+    <t>Siganidae</t>
+  </si>
+  <si>
+    <t>Trichiuridae</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Lmax</t>
+  </si>
+  <si>
+    <t>Lm</t>
+  </si>
+  <si>
+    <t>Lopt</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Reported CPUE (n trap-1)</t>
+  </si>
+  <si>
+    <t>Reported Yield (Biomass kg trap-1)</t>
+  </si>
+  <si>
+    <t>Length (cm survey-1)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Mean +/- SE</t>
   </si>
 </sst>
 </file>
@@ -86,7 +247,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +282,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -136,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,12 +331,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -203,6 +382,49 @@
     </xf>
     <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,194 +739,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE2254E-2433-4745-91B6-A5A22A311AC2}">
-  <dimension ref="B2:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C761741E-3895-7841-892D-BAC3B98047AF}">
+  <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="41.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="7"/>
-    <col min="4" max="4" width="10.83203125" style="7" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="7"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="28.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="18">
+        <v>54</v>
+      </c>
+      <c r="E3" s="18">
+        <v>23.2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>25.2</v>
+      </c>
+      <c r="G3" s="23">
+        <v>4.2560000000000001E-2</v>
+      </c>
+      <c r="H3" s="24">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="I3" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="18">
+        <v>27</v>
+      </c>
+      <c r="E4" s="18">
+        <v>12.3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3.61E-2</v>
+      </c>
+      <c r="H4" s="24">
+        <v>3.13</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="18">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18">
+        <v>35.5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>41.2</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2.673E-2</v>
+      </c>
+      <c r="H5" s="24">
+        <v>2.984</v>
+      </c>
+      <c r="I5" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="18">
+        <v>60</v>
+      </c>
+      <c r="E6" s="18">
+        <v>34.1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>39.4</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1.17E-2</v>
+      </c>
+      <c r="H6" s="24">
+        <v>3.14</v>
+      </c>
+      <c r="I6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="18">
+        <v>30</v>
+      </c>
+      <c r="E7" s="18">
+        <v>18.5</v>
+      </c>
+      <c r="F7" s="18">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H7" s="24">
+        <v>2.96</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="18">
+        <v>75</v>
+      </c>
+      <c r="E8" s="18">
+        <v>30</v>
+      </c>
+      <c r="F8" s="18">
+        <v>34</v>
+      </c>
+      <c r="G8" s="23">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H8" s="24">
+        <v>2.91</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="18">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E9" s="18">
+        <v>21.3</v>
+      </c>
+      <c r="F9" s="18">
+        <v>22.8</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H9" s="24">
+        <v>2.94</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="18">
+        <v>76</v>
+      </c>
+      <c r="E10" s="18">
+        <v>42</v>
+      </c>
+      <c r="F10" s="18">
+        <v>50.2</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="I10" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="18">
+        <v>50</v>
+      </c>
+      <c r="E11" s="18">
+        <v>23.6</v>
+      </c>
+      <c r="F11" s="18">
+        <v>25.8</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1.7010000000000001E-2</v>
+      </c>
+      <c r="H11" s="24">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="I11" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="18">
+        <v>87</v>
+      </c>
+      <c r="E12" s="18">
+        <v>37.4</v>
+      </c>
+      <c r="F12" s="18">
+        <v>43.9</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1.8710000000000001E-2</v>
+      </c>
+      <c r="H12" s="24">
+        <v>2.996</v>
+      </c>
+      <c r="I12" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="18">
+        <v>35</v>
+      </c>
+      <c r="E13" s="18">
+        <v>13.6</v>
+      </c>
+      <c r="F13" s="18">
+        <v>14</v>
+      </c>
+      <c r="G13" s="23">
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2.96</v>
+      </c>
+      <c r="I13" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="18">
+        <v>60</v>
+      </c>
+      <c r="E14" s="18">
+        <v>34.1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>39.4</v>
+      </c>
+      <c r="G14" s="23">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H14" s="24">
+        <v>2.84</v>
+      </c>
+      <c r="I14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18">
+        <v>43</v>
+      </c>
+      <c r="E15" s="18">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F15" s="18">
+        <v>21</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1.38E-2</v>
+      </c>
+      <c r="H15" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="I15" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="18">
+        <v>100</v>
+      </c>
+      <c r="E16" s="18">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F16" s="18">
+        <v>46.4</v>
+      </c>
+      <c r="G16" s="23">
+        <v>5.1029999999999999E-2</v>
+      </c>
+      <c r="H16" s="24">
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="I16" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="18">
+        <v>90</v>
+      </c>
+      <c r="E17" s="18">
+        <v>48.8</v>
+      </c>
+      <c r="F17" s="18">
+        <v>59.7</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1.89E-2</v>
+      </c>
+      <c r="H17" s="24">
+        <v>2.99</v>
+      </c>
+      <c r="I17" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18">
+        <v>36</v>
+      </c>
+      <c r="E18" s="18">
+        <v>17.5</v>
+      </c>
+      <c r="F18" s="18">
+        <v>18.2</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="H18" s="24">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18">
+        <v>40</v>
+      </c>
+      <c r="E19" s="18">
+        <v>23.8</v>
+      </c>
+      <c r="F19" s="18">
+        <v>26</v>
+      </c>
+      <c r="G19" s="23">
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="H19" s="24">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="I19" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="18">
+        <v>50</v>
+      </c>
+      <c r="E20" s="18">
+        <v>29</v>
+      </c>
+      <c r="F20" s="18">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G20" s="23">
+        <v>-1.3260000000000001</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="I20" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="18">
+        <v>60</v>
+      </c>
+      <c r="E21" s="18">
+        <v>34.1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>39.4</v>
+      </c>
+      <c r="G21" s="23">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H21" s="24">
+        <v>2.75</v>
+      </c>
+      <c r="I21" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="18">
+        <v>72</v>
+      </c>
+      <c r="E22" s="18">
+        <v>40</v>
+      </c>
+      <c r="F22" s="18">
+        <v>47.4</v>
+      </c>
+      <c r="G22" s="23">
+        <v>-0.78100000000000003</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="I22" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="18">
+        <v>20.3</v>
+      </c>
+      <c r="E23" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="F23" s="18">
+        <v>13.4</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1.26E-2</v>
+      </c>
+      <c r="H23" s="24">
+        <v>3.04</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="18">
+        <v>75</v>
+      </c>
+      <c r="E24" s="18">
+        <v>41.5</v>
+      </c>
+      <c r="F24" s="18">
+        <v>49.5</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="H24" s="24">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="I24" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="18">
+        <v>70</v>
+      </c>
+      <c r="E25" s="18">
+        <v>26.3</v>
+      </c>
+      <c r="F25" s="18">
+        <v>29.2</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1.15E-2</v>
+      </c>
+      <c r="H25" s="24">
+        <v>3.18</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="18">
+        <v>40</v>
+      </c>
+      <c r="E26" s="18">
+        <v>18</v>
+      </c>
+      <c r="F26" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H26" s="24">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="I26" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="18">
+        <v>45</v>
+      </c>
+      <c r="E27" s="18">
+        <v>26</v>
+      </c>
+      <c r="F27" s="18">
+        <v>29.1</v>
+      </c>
+      <c r="G27" s="23">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="H27" s="24">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="I27" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="18">
+        <v>234</v>
+      </c>
+      <c r="E28" s="18">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F28" s="18">
+        <v>108.9</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="H28" s="24">
+        <v>2.97</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A794481F-4F6D-C649-B0FB-88F056E3A9BA}">
+  <dimension ref="A2:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="G2" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19"/>
+      <c r="C11" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="19"/>
+      <c r="C12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE2254E-2433-4745-91B6-A5A22A311AC2}">
+  <dimension ref="B2:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="41.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="4" max="4" width="10.83203125" style="8" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="8"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>-28.012</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>1751.4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>43.653300000000002</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>11.58572</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>-2.4514999999999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>3687.1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>1.427E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>0.83209540000000004</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>0.79660909999999996</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>-2.9256000000000002</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>2959.7</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>3.4640000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>27.14349</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>26.813230000000001</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>-6.6608000000000001</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="15">
         <v>5132</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>166.6003</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>147.3544</v>
       </c>
     </row>

--- a/FishLandings/output/statistics.xlsx
+++ b/FishLandings/output/statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0093074-4467-2445-92E6-73089CBEA4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE5170-8EF7-2747-BDBF-1A5BFBC52029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="-1820" windowWidth="28020" windowHeight="19700" activeTab="2" xr2:uid="{5FDCE57C-5292-474E-8C9B-DC97E3A3B8AB}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{5FDCE57C-5292-474E-8C9B-DC97E3A3B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Per Trap Stats" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
   <si>
     <t>Dependent Variable</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Catch Per Unit Effort (CPUE; n per trap)</t>
   </si>
   <si>
-    <t>Length (mean cm per survey)</t>
-  </si>
-  <si>
     <t>Value (KES; per trap)</t>
   </si>
   <si>
@@ -214,27 +211,12 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Reported CPUE (n trap-1)</t>
-  </si>
-  <si>
-    <t>Reported Yield (Biomass kg trap-1)</t>
-  </si>
-  <si>
-    <t>Length (cm survey-1)</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
-    <t>Mean +/- SE</t>
-  </si>
-  <si>
     <t>value (KES)</t>
   </si>
   <si>
@@ -278,6 +260,24 @@
   </si>
   <si>
     <t>Chaetodontidae</t>
+  </si>
+  <si>
+    <t>CPUE (n trap-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield (kg trap-1) </t>
+  </si>
+  <si>
+    <t>Fish Length (cm)</t>
+  </si>
+  <si>
+    <t>Trap Type</t>
+  </si>
+  <si>
+    <t>Value (KES trap-1)</t>
+  </si>
+  <si>
+    <t>&lt; 0.001</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,8 +344,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -384,11 +390,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -422,9 +551,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,32 +572,146 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE2254E-2433-4745-91B6-A5A22A311AC2}">
   <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,22 +1045,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -830,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>1</v>
@@ -888,7 +1128,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6">
         <v>-2.4514999999999998</v>
@@ -932,7 +1172,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6">
         <v>-2.9256000000000002</v>
@@ -976,7 +1216,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6">
         <v>-6.6608000000000001</v>
@@ -1020,189 +1260,1071 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A794481F-4F6D-C649-B0FB-88F056E3A9BA}">
-  <dimension ref="A2:G28"/>
+  <dimension ref="B1:AA23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" style="60" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="27"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="27"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="1"/>
+      <c r="P3" s="60"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="1"/>
+      <c r="P4" s="60"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="2:27" ht="19" x14ac:dyDescent="0.2">
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="52"/>
+    </row>
+    <row r="6" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="70">
+        <v>19915</v>
+      </c>
+      <c r="E7" s="46">
+        <v>22.08961</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.21564340000000001</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="70">
+        <v>20127</v>
+      </c>
+      <c r="K7" s="46">
+        <v>0.83676309999999998</v>
+      </c>
+      <c r="L7" s="46">
+        <v>3.7131680000000002E-3</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="53">
+        <v>187445</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>26.030999999999999</v>
+      </c>
+      <c r="R7" s="29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="53">
+        <v>17847</v>
+      </c>
+      <c r="W7" s="41">
+        <v>152.84829999999999</v>
+      </c>
+      <c r="X7" s="41">
+        <v>0.71791430000000001</v>
+      </c>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="66"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="50"/>
+      <c r="C8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="G2" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D8" s="43">
+        <v>12455</v>
+      </c>
+      <c r="E8" s="80">
+        <v>57.456429999999997</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.44229350000000001</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="43">
+        <v>12539</v>
+      </c>
+      <c r="K8" s="46">
+        <v>0.82069519999999996</v>
+      </c>
+      <c r="L8" s="46">
+        <v>3.999407E-3</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="36">
+        <v>124389</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>26.542000000000002</v>
+      </c>
+      <c r="R8" s="29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="36">
+        <v>12415</v>
+      </c>
+      <c r="W8" s="41">
+        <v>163.21899999999999</v>
+      </c>
+      <c r="X8" s="41">
+        <v>0.81398859999999995</v>
+      </c>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="66"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="50"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42">
+        <v>-71.875</v>
+      </c>
+      <c r="H9" s="42">
+        <v>18427</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="29">
+        <v>2.9443000000000001</v>
+      </c>
+      <c r="N9" s="29">
+        <v>29715</v>
+      </c>
+      <c r="O9" s="74">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="42">
+        <v>-22.693000000000001</v>
+      </c>
+      <c r="T9" s="42">
+        <v>262215</v>
+      </c>
+      <c r="U9" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29">
+        <v>-9.5551999999999992</v>
+      </c>
+      <c r="Z9" s="29">
+        <v>27615</v>
+      </c>
+      <c r="AA9" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
+      <c r="D10" s="71">
+        <v>4410</v>
+      </c>
+      <c r="E10" s="47">
+        <v>26.3139</v>
+      </c>
+      <c r="F10" s="73">
+        <v>0.38094250000000002</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="71">
+        <v>4410</v>
+      </c>
+      <c r="K10" s="73">
+        <v>0.90239179999999997</v>
+      </c>
+      <c r="L10" s="73">
+        <v>7.0480400000000002E-3</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="61">
+        <v>33764</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>29.936</v>
+      </c>
+      <c r="R10" s="31">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="61">
+        <v>4238</v>
+      </c>
+      <c r="W10" s="31">
+        <v>170.40539999999999</v>
+      </c>
+      <c r="X10" s="64">
+        <v>1.1970909999999999</v>
+      </c>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="77"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="59"/>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="43">
+        <v>2218</v>
+      </c>
+      <c r="E11" s="80">
+        <v>80.804950000000005</v>
+      </c>
+      <c r="F11" s="46">
+        <v>1.1015558999999999</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="43">
+        <v>2218</v>
+      </c>
+      <c r="K11" s="46">
+        <v>0.9217495</v>
+      </c>
+      <c r="L11" s="46">
+        <v>8.6641319999999997E-3</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="36">
+        <v>17832</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>29.664999999999999</v>
+      </c>
+      <c r="R11" s="29">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="36">
+        <v>2188</v>
+      </c>
+      <c r="W11" s="29">
+        <v>183.27109999999999</v>
+      </c>
+      <c r="X11" s="41">
+        <v>1.7982929999999999</v>
+      </c>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="78"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="59"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42">
+        <v>-46.750999999999998</v>
+      </c>
+      <c r="H12" s="42">
+        <v>2759.1</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="29">
+        <v>-1.7332000000000001</v>
+      </c>
+      <c r="N12" s="29">
+        <v>5017.2</v>
+      </c>
+      <c r="O12" s="75">
+        <v>8.3119999999999999E-2</v>
+      </c>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="42">
+        <v>7.0997000000000003</v>
+      </c>
+      <c r="T12" s="42">
+        <v>36743</v>
+      </c>
+      <c r="U12" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="36"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29">
+        <v>-5.9554999999999998</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>4135.5</v>
+      </c>
+      <c r="AA12" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="D13" s="71">
+        <v>4631</v>
+      </c>
+      <c r="E13" s="73">
+        <v>24.683810000000001</v>
+      </c>
+      <c r="F13" s="73">
+        <v>0.40168959999999998</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="71">
+        <v>4732</v>
+      </c>
+      <c r="K13" s="73">
+        <v>0.81102370000000001</v>
+      </c>
+      <c r="L13" s="73">
+        <v>6.1467900000000001E-3</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="61">
+        <v>21804</v>
+      </c>
+      <c r="Q13" s="64">
+        <v>31.18</v>
+      </c>
+      <c r="R13" s="31">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="61">
+        <v>4509</v>
+      </c>
+      <c r="W13" s="31">
+        <v>155.49270000000001</v>
+      </c>
+      <c r="X13" s="64">
+        <v>1.1600299999999999</v>
+      </c>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="77"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B14" s="59"/>
+      <c r="C14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="D14" s="43">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="79">
+        <v>69.730909999999994</v>
+      </c>
+      <c r="F14" s="46">
+        <v>1.0033277</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="43">
+        <v>2636</v>
+      </c>
+      <c r="K14" s="46">
+        <v>0.85742859999999999</v>
+      </c>
+      <c r="L14" s="46">
+        <v>8.0388950000000008E-3</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="36">
+        <v>12330</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>31.073</v>
+      </c>
+      <c r="R14" s="29">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="36">
+        <v>2607</v>
+      </c>
+      <c r="W14" s="41">
+        <v>170.94030000000001</v>
+      </c>
+      <c r="X14" s="41">
+        <v>1.6669929999999999</v>
+      </c>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="78"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="59"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42">
+        <v>-41.680999999999997</v>
+      </c>
+      <c r="H15" s="42">
+        <v>3449.2</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="43"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="29">
+        <v>-4.5856000000000003</v>
+      </c>
+      <c r="N15" s="29">
+        <v>5558.6</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="42">
+        <v>1.2425999999999999</v>
+      </c>
+      <c r="T15" s="42">
+        <v>26131</v>
+      </c>
+      <c r="U15" s="66">
+        <v>0.214</v>
+      </c>
+      <c r="V15" s="36"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29">
+        <v>-7.6063000000000001</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>5055.7</v>
+      </c>
+      <c r="AA15" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="71">
+        <v>1956</v>
+      </c>
+      <c r="E16" s="47">
+        <v>33.587220000000002</v>
+      </c>
+      <c r="F16" s="73">
+        <v>0.70743710000000004</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="71">
+        <v>1956</v>
+      </c>
+      <c r="K16" s="73">
+        <v>0.9316662</v>
+      </c>
+      <c r="L16" s="73">
+        <v>1.0491550000000001E-2</v>
+      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="61">
+        <v>16401</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>28.283000000000001</v>
+      </c>
+      <c r="R16" s="31">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="61">
+        <v>1869</v>
+      </c>
+      <c r="W16" s="31">
+        <v>172.2773</v>
+      </c>
+      <c r="X16" s="64">
+        <v>1.7297549999999999</v>
+      </c>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="77"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B17" s="59"/>
+      <c r="C17" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="43">
+        <v>894</v>
+      </c>
+      <c r="E17" s="80">
+        <v>85.783140000000003</v>
+      </c>
+      <c r="F17" s="46">
+        <v>1.5450311000000001</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="43">
+        <v>894</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0.82930499999999996</v>
+      </c>
+      <c r="L17" s="46">
+        <v>1.2722499999999999E-2</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="36">
+        <v>6772</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>28.911999999999999</v>
+      </c>
+      <c r="R17" s="29">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="36">
+        <v>889</v>
+      </c>
+      <c r="W17" s="29">
+        <v>162.87649999999999</v>
+      </c>
+      <c r="X17" s="41">
+        <v>2.5209630000000001</v>
+      </c>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="78"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B18" s="59"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42">
+        <v>-30.716000000000001</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1281</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="29">
+        <v>6.2073</v>
+      </c>
+      <c r="N18" s="29">
+        <v>2080.9</v>
+      </c>
+      <c r="O18" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="42">
+        <v>-8.0715000000000003</v>
+      </c>
+      <c r="T18" s="42">
+        <v>12868</v>
+      </c>
+      <c r="U18" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" s="36"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29">
+        <v>3.0748000000000002</v>
+      </c>
+      <c r="Z18" s="29">
+        <v>1737.9</v>
+      </c>
+      <c r="AA18" s="74">
+        <v>2.1389999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B19" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="71">
+        <v>1747</v>
+      </c>
+      <c r="E19" s="47">
+        <v>26.108899999999998</v>
+      </c>
+      <c r="F19" s="73">
+        <v>0.91966029999999999</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="71">
+        <v>1748</v>
+      </c>
+      <c r="K19" s="73">
+        <v>0.91107680000000002</v>
+      </c>
+      <c r="L19" s="73">
+        <v>1.6139230000000001E-2</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="61">
+        <v>11034</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>23.509</v>
+      </c>
+      <c r="R19" s="31">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="61">
+        <v>1738</v>
+      </c>
+      <c r="W19" s="31">
+        <v>177.22380000000001</v>
+      </c>
+      <c r="X19" s="64">
+        <v>3.049356</v>
+      </c>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="77"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B20" s="50"/>
+      <c r="C20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="43">
+        <v>663</v>
+      </c>
+      <c r="E20" s="80">
+        <v>61.827150000000003</v>
+      </c>
+      <c r="F20" s="46">
+        <v>2.3175151999999999</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="43">
+        <v>663</v>
+      </c>
+      <c r="K20" s="46">
+        <v>0.91581559999999995</v>
+      </c>
+      <c r="L20" s="46">
+        <v>2.4239989999999999E-2</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="36">
+        <v>4709</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>23.233000000000001</v>
+      </c>
+      <c r="R20" s="29">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="36">
+        <v>663</v>
+      </c>
+      <c r="W20" s="41">
+        <v>183.52010000000001</v>
+      </c>
+      <c r="X20" s="41">
+        <v>4.8993019999999996</v>
+      </c>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="78"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B21" s="35"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44">
+        <v>-14.326000000000001</v>
+      </c>
+      <c r="H21" s="44">
+        <v>878.65</v>
+      </c>
+      <c r="I21" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="38">
+        <v>-0.16272</v>
+      </c>
+      <c r="N21" s="38">
+        <v>1283.5</v>
+      </c>
+      <c r="O21" s="76">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="44">
+        <v>5.2767999999999997</v>
+      </c>
+      <c r="T21" s="44">
+        <v>15741</v>
+      </c>
+      <c r="U21" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" s="37"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38">
+        <v>-1.0911</v>
+      </c>
+      <c r="Z21" s="38">
+        <v>1205.3</v>
+      </c>
+      <c r="AA21" s="76">
+        <v>0.27550000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="F22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="R22" s="14"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="F23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="R23" s="29"/>
+      <c r="X23" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
+  <mergeCells count="5">
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="B3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1212,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C761741E-3895-7841-892D-BAC3B98047AF}">
   <dimension ref="B2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1225,71 +2347,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="D3" s="15">
         <v>54</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="16">
-        <v>54</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>23.2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>25.2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>4.2560000000000001E-2</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>2.8679999999999999</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="16">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15">
         <v>21</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>7.8</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>7.1</v>
       </c>
       <c r="G4" s="14">
@@ -1303,123 +2425,123 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="15">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15">
+        <v>12.3</v>
+      </c>
+      <c r="F5" s="15">
+        <v>12.2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>3.61E-2</v>
+      </c>
+      <c r="H5" s="21">
+        <v>3.13</v>
+      </c>
+      <c r="I5" s="22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="16">
-        <v>27</v>
-      </c>
-      <c r="E5" s="16">
-        <v>12.3</v>
-      </c>
-      <c r="F5" s="16">
-        <v>12.2</v>
-      </c>
-      <c r="G5" s="21">
-        <v>3.61E-2</v>
-      </c>
-      <c r="H5" s="22">
-        <v>3.13</v>
-      </c>
-      <c r="I5" s="31">
+      <c r="C6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15">
+        <v>70</v>
+      </c>
+      <c r="E6" s="15">
+        <v>35.5</v>
+      </c>
+      <c r="F6" s="15">
+        <v>41.2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2.673E-2</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2.984</v>
+      </c>
+      <c r="I6" s="22">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="16">
-        <v>70</v>
-      </c>
-      <c r="E6" s="16">
-        <v>35.5</v>
-      </c>
-      <c r="F6" s="16">
-        <v>41.2</v>
-      </c>
-      <c r="G6" s="21">
-        <v>2.673E-2</v>
-      </c>
-      <c r="H6" s="22">
-        <v>2.984</v>
-      </c>
-      <c r="I6" s="31">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="15">
+        <v>100</v>
+      </c>
+      <c r="E7" s="15">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F7" s="15">
+        <v>46.4</v>
+      </c>
+      <c r="G7" s="20">
+        <v>5.1029999999999999E-2</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="I7" s="22">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="16">
-        <v>100</v>
-      </c>
-      <c r="E7" s="16">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="F7" s="16">
-        <v>46.4</v>
-      </c>
-      <c r="G7" s="21">
-        <v>5.1029999999999999E-2</v>
-      </c>
-      <c r="H7" s="22">
-        <v>2.7149999999999999</v>
-      </c>
-      <c r="I7" s="31">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="15">
         <v>90</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>48.8</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>59.7</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>1.89E-2</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>2.99</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="16">
+        <v>72</v>
+      </c>
+      <c r="D9" s="15">
         <v>23</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>9.1999999999999993</v>
       </c>
       <c r="G9" s="14">
@@ -1434,102 +2556,102 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="16">
+        <v>72</v>
+      </c>
+      <c r="D10" s="15">
         <v>16</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>10.6</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>10.1</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15">
         <v>20.3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>13.5</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>13.4</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>1.26E-2</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>3.04</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="B12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15">
         <v>30</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>18.5</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>19.399999999999999</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>2.96</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="16">
+        <v>67</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="15">
         <v>60</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>34.1</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>39.4</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <v>2.86</v>
       </c>
       <c r="I13" s="14">
@@ -1537,155 +2659,155 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="15">
+        <v>50</v>
+      </c>
+      <c r="E14" s="15">
         <v>29</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="F14" s="15">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G14" s="21">
+        <v>-1.3260000000000001</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="I14" s="22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="15">
+        <v>60</v>
+      </c>
+      <c r="E15" s="15">
+        <v>34.1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>39.4</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2.75</v>
+      </c>
+      <c r="I15" s="22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="15">
+        <v>72</v>
+      </c>
+      <c r="E16" s="15">
+        <v>40</v>
+      </c>
+      <c r="F16" s="15">
+        <v>47.4</v>
+      </c>
+      <c r="G16" s="21">
+        <v>-0.78100000000000003</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15">
+        <v>76</v>
+      </c>
+      <c r="E17" s="15">
+        <v>42</v>
+      </c>
+      <c r="F17" s="15">
+        <v>50.2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="I17" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="15">
         <v>50</v>
       </c>
-      <c r="E14" s="16">
-        <v>29</v>
-      </c>
-      <c r="F14" s="16">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="G14" s="22">
-        <v>-1.3260000000000001</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0.88</v>
-      </c>
-      <c r="I14" s="31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="16">
-        <v>60</v>
-      </c>
-      <c r="E15" s="16">
-        <v>34.1</v>
-      </c>
-      <c r="F15" s="16">
-        <v>39.4</v>
-      </c>
-      <c r="G15" s="22">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H15" s="22">
-        <v>2.75</v>
-      </c>
-      <c r="I15" s="31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="16">
-        <v>72</v>
-      </c>
-      <c r="E16" s="16">
-        <v>40</v>
-      </c>
-      <c r="F16" s="16">
-        <v>47.4</v>
-      </c>
-      <c r="G16" s="22">
-        <v>-0.78100000000000003</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.85</v>
-      </c>
-      <c r="I16" s="31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="16">
-        <v>76</v>
-      </c>
-      <c r="E17" s="16">
-        <v>42</v>
-      </c>
-      <c r="F17" s="16">
-        <v>50.2</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="I17" s="31">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="16">
-        <v>50</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>23.6</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>25.8</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <v>1.7010000000000001E-2</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <v>3.0419999999999998</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="22">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="16">
         <v>65</v>
       </c>
-      <c r="E19" s="16">
+      <c r="C19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="15">
+        <v>65</v>
+      </c>
+      <c r="E19" s="15">
         <v>35.200000000000003</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>40.9</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>1.6E-2</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <v>3.077</v>
       </c>
       <c r="I19" s="14">
@@ -1693,181 +2815,181 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="15">
+        <v>87</v>
+      </c>
+      <c r="E20" s="15">
+        <v>37.4</v>
+      </c>
+      <c r="F20" s="15">
+        <v>43.9</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1.8710000000000001E-2</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2.996</v>
+      </c>
+      <c r="I20" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="15">
+        <v>60</v>
+      </c>
+      <c r="E21" s="15">
+        <v>34.1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>39.4</v>
+      </c>
+      <c r="G21" s="21">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H21" s="21">
+        <v>2.84</v>
+      </c>
+      <c r="I21" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="16">
-        <v>87</v>
-      </c>
-      <c r="E20" s="16">
-        <v>37.4</v>
-      </c>
-      <c r="F20" s="16">
-        <v>43.9</v>
-      </c>
-      <c r="G20" s="22">
-        <v>1.8710000000000001E-2</v>
-      </c>
-      <c r="H20" s="22">
-        <v>2.996</v>
-      </c>
-      <c r="I20" s="31">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="16">
-        <v>60</v>
-      </c>
-      <c r="E21" s="16">
-        <v>34.1</v>
-      </c>
-      <c r="F21" s="16">
-        <v>39.4</v>
-      </c>
-      <c r="G21" s="22">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H21" s="22">
-        <v>2.84</v>
-      </c>
-      <c r="I21" s="31">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>35</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>13.6</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>14</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>2.0480000000000002E-2</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <v>2.96</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="22">
         <v>350</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="16">
+        <v>71</v>
+      </c>
+      <c r="D23" s="15">
         <v>19.3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>12.5</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>12.3</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="B24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="15">
         <v>43</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>19.899999999999999</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>21</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>1.38E-2</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <v>3.05</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="22">
         <v>300</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="B25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="15">
         <v>36</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>17.5</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>18.2</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <v>3.0779999999999998</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="22">
         <v>300</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="16">
+        <v>66</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="16">
+      <c r="D26" s="15">
+        <v>45</v>
+      </c>
+      <c r="E26" s="15">
         <v>26.5</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>29.3</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <v>2.92</v>
       </c>
       <c r="I26" s="14">
@@ -1875,129 +2997,129 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="B27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="15">
         <v>40</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>23.8</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>26</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>5.4599999999999996E-3</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="21">
         <v>3.2970000000000002</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="22">
         <v>300</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="15">
+        <v>75</v>
+      </c>
+      <c r="E28" s="15">
+        <v>30</v>
+      </c>
+      <c r="F28" s="15">
+        <v>34</v>
+      </c>
+      <c r="G28" s="21">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>2.91</v>
+      </c>
+      <c r="I28" s="22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="C29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="15">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E29" s="15">
+        <v>21.3</v>
+      </c>
+      <c r="F29" s="15">
+        <v>22.8</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H29" s="21">
+        <v>2.94</v>
+      </c>
+      <c r="I29" s="22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="15">
         <v>75</v>
       </c>
-      <c r="E28" s="16">
-        <v>30</v>
-      </c>
-      <c r="F28" s="16">
-        <v>34</v>
-      </c>
-      <c r="G28" s="22">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="H28" s="22">
-        <v>2.91</v>
-      </c>
-      <c r="I28" s="31">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="16">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E29" s="16">
-        <v>21.3</v>
-      </c>
-      <c r="F29" s="16">
-        <v>22.8</v>
-      </c>
-      <c r="G29" s="22">
-        <v>1.84E-2</v>
-      </c>
-      <c r="H29" s="22">
-        <v>2.94</v>
-      </c>
-      <c r="I29" s="31">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="16">
-        <v>75</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>41.5</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>49.5</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="21">
         <v>3.0409999999999999</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="16">
+        <v>68</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="15">
         <v>34</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>15.8</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <v>16.2</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>1.41E-2</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="21">
         <v>3.14</v>
       </c>
       <c r="I31" s="14">
@@ -2005,123 +3127,123 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="B32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="15">
         <v>70</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>26.3</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>29.2</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>1.15E-2</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="21">
         <v>3.18</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="16">
+        <v>69</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="15">
         <v>51</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>29.5</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <v>33.299999999999997</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="14">
         <v>250</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="B34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="15">
         <v>60</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>34.1</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>39.4</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>1.17E-2</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="21">
         <v>3.14</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="22">
         <v>350</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="B35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="15">
         <v>40</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>18</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>10.6</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="21">
         <v>3.1070000000000002</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="22">
         <v>350</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="16">
+        <v>70</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="15">
         <v>40</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>23.8</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>26</v>
       </c>
       <c r="G36" s="14">
@@ -2135,61 +3257,61 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="15">
+        <v>45</v>
+      </c>
+      <c r="E37" s="15">
+        <v>26</v>
+      </c>
+      <c r="F37" s="15">
+        <v>29.1</v>
+      </c>
+      <c r="G37" s="20">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="H37" s="21">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="I37" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="16">
-        <v>45</v>
-      </c>
-      <c r="E37" s="16">
-        <v>26</v>
-      </c>
-      <c r="F37" s="16">
-        <v>29.1</v>
-      </c>
-      <c r="G37" s="21">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="H37" s="22">
-        <v>2.7160000000000002</v>
-      </c>
-      <c r="I37" s="31">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="16">
+      <c r="D38" s="15">
         <v>234</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>75.599999999999994</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>108.9</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="20">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="21">
         <v>2.97</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
